--- a/기획/마이트앤매직/Hores of might & magic V 전투 데미지 역기획서.xlsx
+++ b/기획/마이트앤매직/Hores of might & magic V 전투 데미지 역기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\마이트앤매직\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A396C6A9-FFED-43B1-847E-D61446A568E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E416A98-6D6A-4E64-A30F-6D9E44C1C8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전투 데미지 시스템 역기획서" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="368">
   <si>
     <t>타운</t>
   </si>
@@ -2712,8 +2712,281 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2766,209 +3039,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2990,78 +3060,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3070,34 +3070,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.79995117038483843"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -3136,6 +3108,34 @@
         </top>
         <bottom style="thin">
           <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79995117038483843"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -3508,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA1867F-281F-439A-8D5E-17B9E9836017}">
   <dimension ref="A2:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3519,454 +3519,445 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="164"/>
-      <c r="B2" s="182" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="89" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="81" t="s">
         <v>342</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174"/>
+      <c r="A5" s="83"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="174"/>
-      <c r="B6" s="175" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="93" t="s">
         <v>363</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="93"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="174"/>
-      <c r="B7" s="167" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="174"/>
-      <c r="B8" s="170" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="96" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="171" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="172" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="174"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="91" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="171"/>
-      <c r="F9" s="172" t="s">
+      <c r="E9" s="91"/>
+      <c r="F9" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="174"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="174"/>
-      <c r="B11" s="167" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="94" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="174"/>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="174"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="174"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="174"/>
-      <c r="B15" s="171" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="180" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="97" t="s">
         <v>356</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="174"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="165"/>
-      <c r="B17" s="171" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="C17" s="171"/>
-      <c r="D17" s="180" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="97" t="s">
         <v>366</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="174"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
+      <c r="A20" s="83"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
-      <c r="B21" s="175" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="C21" s="175"/>
+      <c r="C21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="174"/>
-      <c r="B22" s="169" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="174"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="171" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="173" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92" t="s">
         <v>345</v>
       </c>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="91" t="s">
         <v>347</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="173" t="s">
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92" t="s">
         <v>348</v>
       </c>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="173"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="167"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="75"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="167"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
     </row>
     <row r="29" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
     </row>
     <row r="34" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="164"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="164"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
     </row>
     <row r="36" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="168"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="168"/>
-      <c r="M46" s="168"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B27:M28"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="B15:C16"/>
@@ -3975,7 +3966,16 @@
     <mergeCell ref="D17:M19"/>
     <mergeCell ref="B11:M13"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B27:M28"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:M25"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3987,8 +3987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4013,116 +4013,116 @@
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="99" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="130" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="119" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149">
+      <c r="C4" s="120"/>
+      <c r="D4" s="121">
         <v>43</v>
       </c>
-      <c r="E4" s="150"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="34"/>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="143"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
       <c r="K4" s="34"/>
-      <c r="L4" s="144" t="s">
+      <c r="L4" s="116" t="s">
         <v>324</v>
       </c>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="146"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
     </row>
     <row r="5" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="123" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153" t="str">
+      <c r="C5" s="124"/>
+      <c r="D5" s="125" t="str">
         <f>VLOOKUP('데미지 계산기'!D6,'영웅 능력치 테이블'!$M$6:$V$13,2,0)</f>
-        <v>나이트</v>
-      </c>
-      <c r="E5" s="154"/>
+        <v>워록</v>
+      </c>
+      <c r="E5" s="126"/>
       <c r="F5" s="34"/>
       <c r="G5" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="111" t="str">
+      <c r="H5" s="142" t="str">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
-        <v>대천사</v>
-      </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+        <v>기병대</v>
+      </c>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="34"/>
       <c r="L5" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="97" t="str">
+      <c r="M5" s="150" t="str">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
         <v>대천사</v>
       </c>
-      <c r="N5" s="97"/>
-      <c r="O5" s="98"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="151"/>
     </row>
     <row r="6" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="109" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="140"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="112"/>
       <c r="F6" s="34"/>
       <c r="G6" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
       <c r="K6" s="34"/>
       <c r="L6" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="M6" s="99" t="s">
+      <c r="M6" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="100"/>
-      <c r="O6" s="101"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="154"/>
     </row>
     <row r="7" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="171" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="88"/>
+      <c r="C7" s="172"/>
       <c r="D7" s="64" t="s">
         <v>322</v>
       </c>
@@ -4133,20 +4133,20 @@
       <c r="G7" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="H7" s="92">
-        <v>7</v>
-      </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
+      <c r="H7" s="176">
+        <v>6</v>
+      </c>
+      <c r="I7" s="177"/>
+      <c r="J7" s="178"/>
       <c r="K7" s="34"/>
       <c r="L7" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="155">
         <v>7</v>
       </c>
-      <c r="N7" s="103"/>
-      <c r="O7" s="104"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="157"/>
     </row>
     <row r="8" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
@@ -4154,11 +4154,11 @@
       </c>
       <c r="C8" s="44">
         <f>VLOOKUP('데미지 계산기'!D6,'영웅 능력치 테이블'!$M$6:$V$13,3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="45">
         <f>VLOOKUP('데미지 계산기'!D6,'영웅 능력치 테이블'!$M$6:$V$13,7,0)</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="55">
         <v>2</v>
@@ -4168,21 +4168,21 @@
         <f>IF(H6="중립","3.유닛 타입","3.업그레이드")</f>
         <v>3.업그레이드</v>
       </c>
-      <c r="H8" s="92">
-        <v>1</v>
-      </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94"/>
+      <c r="H8" s="176" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="177"/>
+      <c r="J8" s="178"/>
       <c r="K8" s="34"/>
       <c r="L8" s="62" t="str">
         <f>IF(M6="중립","3.유닛 타입","3.업그레이드")</f>
         <v>3.업그레이드</v>
       </c>
-      <c r="M8" s="105">
-        <v>1</v>
-      </c>
-      <c r="N8" s="106"/>
-      <c r="O8" s="107"/>
+      <c r="M8" s="158">
+        <v>1</v>
+      </c>
+      <c r="N8" s="159"/>
+      <c r="O8" s="160"/>
     </row>
     <row r="9" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="66" t="s">
@@ -4190,11 +4190,11 @@
       </c>
       <c r="C9" s="46">
         <f>VLOOKUP('데미지 계산기'!D6,'영웅 능력치 테이블'!$M$6:$V$13,4,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="47">
         <f>VLOOKUP('데미지 계산기'!D6,'영웅 능력치 테이블'!$M$6:$V$13,8,0)</f>
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="56">
         <v>13</v>
@@ -4203,20 +4203,20 @@
       <c r="G9" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="165">
         <v>99</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="167"/>
       <c r="K9" s="34"/>
       <c r="L9" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="M9" s="108">
+      <c r="M9" s="161">
         <v>120</v>
       </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="163"/>
     </row>
     <row r="10" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B10" s="66" t="s">
@@ -4224,11 +4224,11 @@
       </c>
       <c r="C10" s="46">
         <f>VLOOKUP('데미지 계산기'!D6,'영웅 능력치 테이블'!$M$6:$V$13,5,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="47">
         <f>VLOOKUP('데미지 계산기'!D6,'영웅 능력치 테이블'!$M$6:$V$13,9,0)</f>
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="E10" s="56">
         <v>2</v>
@@ -4237,22 +4237,22 @@
       <c r="G10" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="173">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
-        <v>31</v>
-      </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
+        <v>23</v>
+      </c>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
       <c r="K10" s="34"/>
       <c r="L10" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="117">
+      <c r="M10" s="148">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
         <v>31</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="149"/>
     </row>
     <row r="11" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="67" t="s">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="D11" s="49">
         <f>VLOOKUP('데미지 계산기'!D6,'영웅 능력치 테이블'!$M$6:$V$13,10,0)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E11" s="57">
         <v>25</v>
@@ -4273,22 +4273,22 @@
       <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="168">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
-        <v>31</v>
-      </c>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
+        <v>21</v>
+      </c>
+      <c r="I11" s="169"/>
+      <c r="J11" s="170"/>
       <c r="K11" s="34"/>
       <c r="L11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="95">
+      <c r="M11" s="129">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
         <v>31</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="96"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="130"/>
       <c r="P11" s="33"/>
     </row>
     <row r="12" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4296,11 +4296,11 @@
         <f>IF(E12="초과","초과 분배 능력치","미분배 능력치")</f>
         <v>미분배 능력치</v>
       </c>
-      <c r="C12" s="80" t="str">
+      <c r="C12" s="164" t="str">
         <f>IF((E8+E9+E10+E11)&gt;(D4-1),(E8+E9+E10+E11)-(D4-1),"")</f>
         <v/>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="50">
         <f>IF(E8+E9+E10+E11&gt;(D4-1),"초과",(D4-1)-E8-E9-E10-E11)</f>
         <v>0</v>
@@ -4311,14 +4311,14 @@
       </c>
       <c r="H12" s="51">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,9,0)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I12" s="52" t="s">
         <v>327</v>
       </c>
       <c r="J12" s="53">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,10,0)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="71" t="s">
@@ -4345,28 +4345,28 @@
       <c r="G13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="84" t="str">
+      <c r="H13" s="168" t="str">
         <f>IF(VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
         <v>근거리 유닛</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="170"/>
       <c r="K13" s="34"/>
       <c r="L13" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="95" t="str">
+      <c r="M13" s="129" t="str">
         <f>IF(VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
         <v>근거리 유닛</v>
       </c>
-      <c r="N13" s="95"/>
-      <c r="O13" s="96"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="130"/>
     </row>
     <row r="14" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="127" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="156"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="41" t="s">
         <v>328</v>
       </c>
@@ -4375,50 +4375,50 @@
       <c r="G14" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="168">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
-        <v>220</v>
-      </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
+        <v>90</v>
+      </c>
+      <c r="I14" s="169"/>
+      <c r="J14" s="170"/>
       <c r="K14" s="34"/>
       <c r="L14" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="95">
+      <c r="M14" s="129">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
         <v>220</v>
       </c>
-      <c r="N14" s="95"/>
-      <c r="O14" s="96"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="130"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="131" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="168">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
         <v>11</v>
       </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="170"/>
       <c r="K15" s="34"/>
       <c r="L15" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="95">
+      <c r="M15" s="129">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
         <v>11</v>
       </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="96"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="130"/>
     </row>
     <row r="16" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="str">
@@ -4438,50 +4438,50 @@
       <c r="G16" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="168">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
-        <v>8</v>
-      </c>
-      <c r="I16" s="85"/>
-      <c r="J16" s="86"/>
+        <v>7</v>
+      </c>
+      <c r="I16" s="169"/>
+      <c r="J16" s="170"/>
       <c r="K16" s="34"/>
       <c r="L16" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="95">
+      <c r="M16" s="129">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
         <v>8</v>
       </c>
-      <c r="N16" s="95"/>
-      <c r="O16" s="96"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="130"/>
     </row>
     <row r="17" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="134" t="s">
         <v>311</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="136"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="168">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="169"/>
+      <c r="J17" s="170"/>
       <c r="K17" s="34"/>
       <c r="L17" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="95">
+      <c r="M17" s="129">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
         <v>1</v>
       </c>
-      <c r="N17" s="95"/>
-      <c r="O17" s="96"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="130"/>
     </row>
     <row r="18" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="38" t="str">
@@ -4501,22 +4501,22 @@
       <c r="G18" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="125" t="str">
+      <c r="H18" s="137" t="str">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
-        <v>3500 금 / 2 수정</v>
-      </c>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
+        <v>1300 금</v>
+      </c>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
       <c r="K18" s="34"/>
       <c r="L18" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="128" t="str">
+      <c r="M18" s="140" t="str">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
         <v>3500 금 / 2 수정</v>
       </c>
-      <c r="N18" s="128"/>
-      <c r="O18" s="129"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="141"/>
     </row>
     <row r="19" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
       <c r="E19" s="34"/>
@@ -4532,44 +4532,44 @@
       <c r="O19" s="34"/>
     </row>
     <row r="20" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="100" t="s">
         <v>338</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
       <c r="F21" s="43"/>
-      <c r="G21" s="133" t="s">
+      <c r="G21" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="183" t="s">
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="K21" s="184"/>
+      <c r="K21" s="102"/>
     </row>
     <row r="22" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="100" t="s">
         <v>339</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
       <c r="F22" s="43"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="186"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="104"/>
     </row>
     <row r="23" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="H23" s="33"/>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C58" s="42">
         <f>ROUND(IF(C8+E8+H10&gt;=M11,(H12*H9)*(1+0.05*((C8+E8+H10)-M11)),(H12*H9)*(1+0.05*(M11-(H10+C8+E8)))),0)</f>
-        <v>5940</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="C59" s="42">
         <f>ROUND(IF(C8+E8+H10&gt;=M11,(J12*H9)*(1+0.05*((C8+E8+H10)-M11)),(J12*H9)*(1+0.05*(M11-(H10+C8+E8)))),0)</f>
-        <v>5940</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="C60" s="42">
         <f>ROUNDDOWN(C58/M14,0)</f>
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="C61" s="42">
         <f>ROUNDDOWN(C59/M14,0)</f>
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -4707,6 +4707,36 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="46">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B20:E20"/>
@@ -4723,36 +4753,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C12">
@@ -4786,12 +4786,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$J$21="ON"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 D6:E6 E8:E11 D14 H6:J9 M6:O9">
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>$J$21="ON"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4912,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14031,42 +14031,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="185" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="2:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="179" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="159"/>
-      <c r="M3" s="79" t="s">
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
+      <c r="M3" s="186" t="s">
         <v>359</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
     </row>
     <row r="4" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -14095,18 +14095,18 @@
       </c>
       <c r="M4" s="76"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="160" t="s">
+      <c r="O4" s="182" t="s">
         <v>299</v>
       </c>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161" t="s">
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183" t="s">
         <v>298</v>
       </c>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="162"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="184"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
